--- a/moneyRecord/moneyRecord.xlsx
+++ b/moneyRecord/moneyRecord.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>焦琨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,26 @@
   </si>
   <si>
     <t>2016年7月23号-2016年7月29日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦琨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦琨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均58</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +164,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,8 +197,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -423,11 +462,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,6 +525,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,22 +561,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -842,7 +926,7 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -869,7 +953,7 @@
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -880,11 +964,11 @@
         <v>45</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="17">
+      <c r="E2" s="23">
         <f>SUM(C2:C7)</f>
         <v>184</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="26" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="9"/>
@@ -898,7 +982,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -909,8 +993,8 @@
         <v>25</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="21"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="12"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -922,7 +1006,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -933,8 +1017,8 @@
         <v>30</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="12"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -946,7 +1030,7 @@
       <c r="O4" s="7"/>
       <c r="P4" s="13"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -957,8 +1041,8 @@
         <v>46</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="21"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="12"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -970,7 +1054,7 @@
       <c r="O5" s="7"/>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -981,8 +1065,8 @@
         <v>23</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="21"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="12"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -994,7 +1078,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="13"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,8 +1089,8 @@
         <v>15</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -1018,131 +1102,234 @@
       <c r="O7" s="15"/>
       <c r="P7" s="16"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="17">
         <v>185</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18">
         <v>42214</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="17">
         <v>21</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="17">
         <v>7</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="27">
+      <c r="D11" s="17"/>
+      <c r="E11" s="21">
         <v>34</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="17">
         <v>6</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <v>10.5</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+    </row>
+    <row r="15" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="30">
+        <v>24.5</v>
+      </c>
+      <c r="E15" s="31">
+        <v>78</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="37"/>
+    </row>
+    <row r="16" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="30">
+        <v>53</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="34">
+        <v>42581</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="37"/>
+    </row>
+    <row r="17" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="30">
+        <v>293</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="F2:F7"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A14:XFD14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moneyRecord/moneyRecord.xlsx
+++ b/moneyRecord/moneyRecord.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>焦琨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,22 @@
   </si>
   <si>
     <t>平均58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦琨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐外卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐撸串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许杰欠焦琨70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +225,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -475,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,6 +565,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,40 +604,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -911,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -923,7 +960,8 @@
     <col min="2" max="2" width="12" style="3" customWidth="1"/>
     <col min="3" max="5" width="9" style="3"/>
     <col min="6" max="6" width="31" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="23.875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -964,11 +1002,11 @@
         <v>45</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="23">
+      <c r="E2" s="30">
         <f>SUM(C2:C7)</f>
         <v>184</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="33" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="9"/>
@@ -993,8 +1031,8 @@
         <v>25</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="27"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="12"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1017,8 +1055,8 @@
         <v>30</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="12"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1041,8 +1079,8 @@
         <v>46</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="27"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="12"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1065,8 +1103,8 @@
         <v>23</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="12"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1089,8 +1127,8 @@
         <v>15</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -1102,7 +1140,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="16"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -1117,17 +1155,8 @@
       <c r="F9" s="18">
         <v>42214</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>19</v>
       </c>
@@ -1140,17 +1169,8 @@
       <c r="D10" s="17"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
@@ -1167,17 +1187,8 @@
       <c r="F11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>22</v>
       </c>
@@ -1190,17 +1201,8 @@
       <c r="D12" s="17"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -1213,123 +1215,146 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-    </row>
-    <row r="14" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-    </row>
-    <row r="15" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+    </row>
+    <row r="14" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+    </row>
+    <row r="15" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="24">
         <v>24.5</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="36">
         <v>78</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="37"/>
-    </row>
-    <row r="16" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="29"/>
+    </row>
+    <row r="16" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="24">
         <v>53</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="34">
+      <c r="E16" s="37"/>
+      <c r="F16" s="26">
         <v>42581</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="37"/>
-    </row>
-    <row r="17" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="G16" s="28"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="29"/>
+    </row>
+    <row r="17" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="24">
         <v>293</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="37"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="29"/>
+    </row>
+    <row r="19" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="41">
+        <v>74</v>
+      </c>
+      <c r="F19" s="42">
+        <v>42582</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="41">
+        <v>70</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moneyRecord/moneyRecord.xlsx
+++ b/moneyRecord/moneyRecord.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>焦琨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,7 +157,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>许杰欠焦琨70</t>
+    <t>焦琨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车费报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦琨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重秤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年8月1号-2016年8月5号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车费报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许杰欠焦琨330</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +259,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -497,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -586,6 +620,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,19 +656,31 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1002,11 +1051,11 @@
         <v>45</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="30">
+      <c r="E2" s="31">
         <f>SUM(C2:C7)</f>
         <v>184</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="9"/>
@@ -1031,8 +1080,8 @@
         <v>25</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="34"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="35"/>
       <c r="G3" s="12"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1055,8 +1104,8 @@
         <v>30</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="34"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="12"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1079,8 +1128,8 @@
         <v>46</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="34"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="12"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1103,8 +1152,8 @@
         <v>23</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="34"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="12"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1127,8 +1176,8 @@
         <v>15</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="35"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -1216,25 +1265,25 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
+    <row r="14" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
     </row>
     <row r="15" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
@@ -1246,7 +1295,7 @@
       <c r="C15" s="24">
         <v>24.5</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="37">
         <v>78</v>
       </c>
       <c r="F15" s="25"/>
@@ -1273,7 +1322,7 @@
       <c r="C16" s="24">
         <v>53</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="26">
         <v>42581</v>
       </c>
@@ -1317,38 +1366,83 @@
       <c r="Q17" s="23"/>
       <c r="R17" s="29"/>
     </row>
-    <row r="19" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="30">
         <v>74</v>
       </c>
       <c r="F19" s="42">
         <v>42582</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="30">
         <v>70</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="45"/>
     </row>
+    <row r="22" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="49">
+        <v>23</v>
+      </c>
+      <c r="E22" s="47">
+        <v>86.2</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="46">
+        <v>59</v>
+      </c>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="46">
+        <v>4.2</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="E15:E16"/>

--- a/moneyRecord/moneyRecord.xlsx
+++ b/moneyRecord/moneyRecord.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>焦琨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,7 +185,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>许杰欠焦琨330</t>
+    <t>焦琨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车费报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦琨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自家鱼塘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦琨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头烤肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车费报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均52.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均93.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年8月8号-2016年8月14日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许杰欠焦琨288</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +329,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -531,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -623,6 +693,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,19 +753,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1051,11 +1133,11 @@
         <v>45</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="31">
+      <c r="E2" s="36">
         <f>SUM(C2:C7)</f>
         <v>184</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="39" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="9"/>
@@ -1080,8 +1162,8 @@
         <v>25</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="35"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="12"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1104,8 +1186,8 @@
         <v>30</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="35"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="12"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1128,8 +1210,8 @@
         <v>46</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="35"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="12"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1152,8 +1234,8 @@
         <v>23</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="35"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="12"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1176,8 +1258,8 @@
         <v>15</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="36"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -1265,25 +1347,25 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
+    <row r="14" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
     </row>
     <row r="15" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
@@ -1295,7 +1377,7 @@
       <c r="C15" s="24">
         <v>24.5</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="42">
         <v>78</v>
       </c>
       <c r="F15" s="25"/>
@@ -1322,7 +1404,7 @@
       <c r="C16" s="24">
         <v>53</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="26">
         <v>42581</v>
       </c>
@@ -1376,12 +1458,10 @@
       <c r="C19" s="30">
         <v>74</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="47">
         <v>42582</v>
       </c>
-      <c r="G19" s="44" t="s">
-        <v>41</v>
-      </c>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
@@ -1393,54 +1473,190 @@
       <c r="C20" s="30">
         <v>70</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="45"/>
-    </row>
-    <row r="22" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
+      <c r="F20" s="48"/>
+      <c r="G20" s="50"/>
+    </row>
+    <row r="22" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="32">
         <v>23</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="33">
         <v>86.2</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
+    <row r="23" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="31">
         <v>59</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-    </row>
-    <row r="24" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="31">
         <v>4.2</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="26" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="51">
+        <v>62</v>
+      </c>
+      <c r="E26" s="52">
+        <v>595.5</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="51">
+        <v>7</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+    </row>
+    <row r="28" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="51">
+        <v>100</v>
+      </c>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="51">
+        <v>8.5</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+    </row>
+    <row r="30" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="51">
+        <v>15</v>
+      </c>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+    </row>
+    <row r="31" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="51">
+        <v>45</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+    </row>
+    <row r="32" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="51">
+        <v>43</v>
+      </c>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+    </row>
+    <row r="33" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="51">
+        <f>SUM(C26:C32)</f>
+        <v>280.5</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+    </row>
+    <row r="34" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="51">
+        <v>315</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="E26:E34"/>
+    <mergeCell ref="F26:F34"/>
+    <mergeCell ref="G26:G34"/>
     <mergeCell ref="E22:E24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="E2:E7"/>

--- a/moneyRecord/moneyRecord.xlsx
+++ b/moneyRecord/moneyRecord.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>焦琨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,7 +249,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>许杰欠焦琨288</t>
+    <t>许杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唱歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人居吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果烤鸭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦琨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车费报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车费报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肠粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣阿婆火锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年8月15日-2016年8月21日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,6 +759,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -751,18 +823,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G34"/>
+      <selection activeCell="F36" sqref="F36:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1133,11 +1193,11 @@
         <v>45</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="36">
+      <c r="E2" s="40">
         <f>SUM(C2:C7)</f>
         <v>184</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="43" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="9"/>
@@ -1162,8 +1222,8 @@
         <v>25</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="12"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1186,8 +1246,8 @@
         <v>30</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="12"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1210,8 +1270,8 @@
         <v>46</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="12"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1234,8 +1294,8 @@
         <v>23</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="12"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1258,8 +1318,8 @@
         <v>15</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -1347,25 +1407,25 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
+    <row r="14" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
     </row>
     <row r="15" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
@@ -1377,7 +1437,7 @@
       <c r="C15" s="24">
         <v>24.5</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="46">
         <v>78</v>
       </c>
       <c r="F15" s="25"/>
@@ -1404,7 +1464,7 @@
       <c r="C16" s="24">
         <v>53</v>
       </c>
-      <c r="E16" s="43"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="26">
         <v>42581</v>
       </c>
@@ -1458,10 +1518,10 @@
       <c r="C19" s="30">
         <v>74</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="51">
         <v>42582</v>
       </c>
-      <c r="G19" s="49"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
@@ -1473,8 +1533,8 @@
       <c r="C20" s="30">
         <v>70</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="50"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="54"/>
     </row>
     <row r="22" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
@@ -1486,10 +1546,10 @@
       <c r="C22" s="32">
         <v>23</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="37">
         <v>86.2</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="37" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1503,8 +1563,8 @@
       <c r="C23" s="31">
         <v>59</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
@@ -1516,155 +1576,269 @@
       <c r="C24" s="31">
         <v>4.2</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-    </row>
-    <row r="26" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="26" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="33">
         <v>62</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="34">
         <v>595.5</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="G26" s="34"/>
+    </row>
+    <row r="27" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="33">
         <v>7</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-    </row>
-    <row r="28" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="33">
         <v>100</v>
       </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-    </row>
-    <row r="29" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51" t="s">
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="33">
         <v>8.5</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-    </row>
-    <row r="30" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="s">
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="33">
         <v>15</v>
       </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-    </row>
-    <row r="31" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="33">
         <v>45</v>
       </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-    </row>
-    <row r="32" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+    </row>
+    <row r="32" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="33">
         <v>43</v>
       </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-    </row>
-    <row r="33" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="51">
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+    </row>
+    <row r="33" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="33">
         <f>SUM(C26:C32)</f>
         <v>280.5</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-    </row>
-    <row r="34" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="51" t="s">
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+    </row>
+    <row r="34" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="33">
         <v>315</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="36" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="31">
+        <v>58</v>
+      </c>
+      <c r="E36" s="37">
+        <v>453</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="31">
+        <v>165</v>
+      </c>
+      <c r="D37" s="31">
+        <v>100</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+    </row>
+    <row r="38" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="31">
+        <v>18</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+    </row>
+    <row r="39" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="31">
+        <v>24</v>
+      </c>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+    </row>
+    <row r="40" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="31">
+        <v>29</v>
+      </c>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+    </row>
+    <row r="41" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="31">
+        <v>19</v>
+      </c>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+    </row>
+    <row r="42" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="31">
+        <v>110</v>
+      </c>
+      <c r="D42" s="31">
+        <v>66</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+    </row>
+    <row r="43" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="31">
+        <v>30</v>
+      </c>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="E26:E34"/>
-    <mergeCell ref="F26:F34"/>
-    <mergeCell ref="G26:G34"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
+  <mergeCells count="13">
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="F36:F43"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="A14:XFD14"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E26:E34"/>
+    <mergeCell ref="F26:F34"/>
+    <mergeCell ref="G26:G34"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
